--- a/biology/Botanique/Théâtre_de_verdure/Théâtre_de_verdure.xlsx
+++ b/biology/Botanique/Théâtre_de_verdure/Théâtre_de_verdure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Th%C3%A9%C3%A2tre_de_verdure</t>
+          <t>Théâtre_de_verdure</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un théâtre de verdure est un cadre de végétation artistiquement aménagé permettant d'assister en plein air[1] à des spectacles vivants ou à des séances de cinéma. Souvent inspiré des amphithéâtres antiques dans la disposition semi-circulaire de gradins ou de chaises orientés vers un espace scénique, il peut être placé dans un jardin public entouré de hautes haies ou s'insérer plus harmonieusement dans l'environnement naturel. Dans le cas d'environnement aquatique, on parle de théâtre d'eau[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un théâtre de verdure est un cadre de végétation artistiquement aménagé permettant d'assister en plein air à des spectacles vivants ou à des séances de cinéma. Souvent inspiré des amphithéâtres antiques dans la disposition semi-circulaire de gradins ou de chaises orientés vers un espace scénique, il peut être placé dans un jardin public entouré de hautes haies ou s'insérer plus harmonieusement dans l'environnement naturel. Dans le cas d'environnement aquatique, on parle de théâtre d'eau.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Th%C3%A9%C3%A2tre_de_verdure</t>
+          <t>Théâtre_de_verdure</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un des premiers exemples notables d'un théâtre en plein air est le bosquet du Théâtre d'eau aux jardins de Versailles, composé d'un hémicycle à trois gradins engazonnés faisant face à une scène avec des fontaines et des cascades en arrière-plan[3]. Construit en 1674, ce bosquet est inspiré d'un théâtre en salle Teatro Olimpico de Vicence en Italie.
-Au temps de l'aménagement des jardins à la française, des théâtres de verdure taillés dans l'environnement végétal se sont multipliés. Des haies sont plantées derrière la scène pour servir de coulisses aux comédiens. C'est le cas du théâtre de verdure du Grand Jardin d'Herrenhausen conçu en 1692 à Hanovre. Ces théâtres d'époque baroque sont souvent agrémentés d'éléments de staffage comme des sculptures allégoriques ou des putti. Des ruines, des roches ou des grottes préexistantes sont parfois également incorporées à la scène[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un des premiers exemples notables d'un théâtre en plein air est le bosquet du Théâtre d'eau aux jardins de Versailles, composé d'un hémicycle à trois gradins engazonnés faisant face à une scène avec des fontaines et des cascades en arrière-plan. Construit en 1674, ce bosquet est inspiré d'un théâtre en salle Teatro Olimpico de Vicence en Italie.
+Au temps de l'aménagement des jardins à la française, des théâtres de verdure taillés dans l'environnement végétal se sont multipliés. Des haies sont plantées derrière la scène pour servir de coulisses aux comédiens. C'est le cas du théâtre de verdure du Grand Jardin d'Herrenhausen conçu en 1692 à Hanovre. Ces théâtres d'époque baroque sont souvent agrémentés d'éléments de staffage comme des sculptures allégoriques ou des putti. Des ruines, des roches ou des grottes préexistantes sont parfois également incorporées à la scène.
 La construction massive de théâtre de verdure tels qu'on les connaît aujourd'hui débute dans les années 1860, avec un pic entre les années 1910 et 1930, particulièrement en Allemagne.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Th%C3%A9%C3%A2tre_de_verdure</t>
+          <t>Théâtre_de_verdure</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,12 +560,51 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Algérie
-Théâtre de verdure d'Annaba.
+          <t>Algérie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Théâtre de verdure d'Annaba.
 Théâtre de verdure d'Alger.
-Théâtre de verdure d'Oran.
-Allemagne
-Naturtheater Grötzingen à Aichtal.
+Théâtre de verdure d'Oran.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Théâtre_de_verdure</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Th%C3%A9%C3%A2tre_de_verdure</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste de théâtres de verdure par pays</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Allemagne</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Naturtheater Grötzingen à Aichtal.
 Freilichtbühne Altusried à Altusried.
 Freilichtbühne am Roten Tor à Augsbourg.
 Kleine Ausburger Freilichtbühne à Augsbourg.
@@ -592,15 +645,117 @@
 Naturbühne Steintäle à Fridingen an der Donau.
 Scherenburg à Gemünden am Main.
 Waldbühne Kloster Oesede à Georgsmarienhütte.
-Florian Geyer Festspiele à Giebelstadt.
-Belgique
-Théâtre de Verdure de Namur (Citadelle de Namur).
+Florian Geyer Festspiele à Giebelstadt.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Théâtre_de_verdure</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Th%C3%A9%C3%A2tre_de_verdure</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste de théâtres de verdure par pays</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Belgique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Théâtre de Verdure de Namur (Citadelle de Namur).
 Théâtre de Verdure du Parc d'Osseghem à Bruxelles.
-Théâtre de Verdure du château de Leeuwergem, unique en Europe car constitué en pourtour de loges taillées en topiaire, tout de charme (Carpinus betulus) constituées, encadrant un parterre enherbé. Sa réalisation date de 1764 et il peut contenir jusqu'à 800 personnes (700 debout sur le parterre et 100 dans les loges).
-Canada
-théâtre de Verdure de Montréal au Parc Lafontaine.
-France
-Théatre de verdure (Naturtheater) de Dambach la Ville (1919-1921)
+Théâtre de Verdure du château de Leeuwergem, unique en Europe car constitué en pourtour de loges taillées en topiaire, tout de charme (Carpinus betulus) constituées, encadrant un parterre enherbé. Sa réalisation date de 1764 et il peut contenir jusqu'à 800 personnes (700 debout sur le parterre et 100 dans les loges).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Théâtre_de_verdure</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Th%C3%A9%C3%A2tre_de_verdure</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste de théâtres de verdure par pays</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>théâtre de Verdure de Montréal au Parc Lafontaine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Théâtre_de_verdure</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Th%C3%A9%C3%A2tre_de_verdure</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste de théâtres de verdure par pays</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Théatre de verdure (Naturtheater) de Dambach la Ville (1919-1921)
 Théâtre populaire de plein air de Ribeauvillé (1921 - ...)
 Bosquet du Théâtre d'eau dans le jardin de Versailles.
 Théâtre Silvain à Marseille.
@@ -612,9 +767,43 @@
 Théâtre de verdure, à Barentin.
 Théâtre de verdure du Parc du Sarrat, à Dax.
 Théâtre de verdure du Parc Beaumont, à Pau.
-Théâtre de verdure, à Géménos.
-Italie
-Villa Bernardini, Lucques
+Théâtre de verdure, à Géménos.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Théâtre_de_verdure</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Th%C3%A9%C3%A2tre_de_verdure</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste de théâtres de verdure par pays</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Italie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Villa Bernardini, Lucques
 Villa di Bibbiani, Capraia e Limite
 Villa Caprile, Pesaro
 Villa Castelnuovo, Palerme
@@ -632,38 +821,74 @@
 Villa Reale di Marlia, Capannori
 Villa Rizzardi, Negrar di Valpolicella
 Convento delle Oblate, Borgo a Mozzano
-Villa d'Alaya- Valva (Sa)Teatro di Verdura, via del Fante, Palerme.
-Suisse
-Théâtre de verdure de l'Esplanade de Montbenon à Lausanne.
-Théâtre de Verdure du Jardin du Rivage à Vevey[5]</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Th%C3%A9%C3%A2tre_de_verdure</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+Villa d'Alaya- Valva (Sa)Teatro di Verdura, via del Fante, Palerme.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Théâtre_de_verdure</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Th%C3%A9%C3%A2tre_de_verdure</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste de théâtres de verdure par pays</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Suisse</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Théâtre de verdure de l'Esplanade de Montbenon à Lausanne.
+Théâtre de Verdure du Jardin du Rivage à Vevey</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Théâtre_de_verdure</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Th%C3%A9%C3%A2tre_de_verdure</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Festivals dans des théâtres de verdure</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Festival Les Nuits du Piano d'Erbalunga dans le théâtre de verdure de Brando en Haute-Corse.
 Festival de Ramatuelle.
